--- a/CRC Data/Labor Day Dates Dataframe/LaborDay_Dates.xlsx
+++ b/CRC Data/Labor Day Dates Dataframe/LaborDay_Dates.xlsx
@@ -1047,8 +1047,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE9114A9D0DECB469CD3434F7556ACE4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="69096168ac7ced0b799f829a42a3dc95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="62120a19-a38a-4c78-8e86-03b65bdcf4fa" xmlns:ns3="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc6a4a317e1aa101042744f0dc04384" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE9114A9D0DECB469CD3434F7556ACE4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ecdf13fd03e578e190d1c2fef808890a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="62120a19-a38a-4c78-8e86-03b65bdcf4fa" xmlns:ns3="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d204db95074059abcc46212eb5d192a9" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="62120a19-a38a-4c78-8e86-03b65bdcf4fa"/>
     <xsd:import namespace="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d"/>
@@ -1074,6 +1074,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1155,6 +1156,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1307,24 +1313,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="62120a19-a38a-4c78-8e86-03b65bdcf4fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE2FC310-90CB-4CFA-BE28-C67DE7DCF4DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="62120a19-a38a-4c78-8e86-03b65bdcf4fa"/>
-    <ds:schemaRef ds:uri="671c5c8a-d1dd-40a7-bcfd-3ed591bedb5d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F680824C-E7FF-4D92-84DC-F7E58453F8C8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,4 +1336,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62302965-EFB7-4B32-8DEC-7840BD479795}"/>
 </file>